--- a/live2024/source/im-repository/im-repository-export-data.xlsx
+++ b/live2024/source/im-repository/im-repository-export-data.xlsx
@@ -2779,9 +2779,21 @@
           <t/>
         </is>
       </c>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
+      <c r="AH4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK4" s="10" t="inlineStr">
         <is>
           <t>, 20</t>
@@ -2990,17 +3002,41 @@
           <t>氏名</t>
         </is>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="AD5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG5" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="AH5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
@@ -3157,17 +3193,41 @@
           <t>年齢</t>
         </is>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
+      <c r="AD6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG6" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
+      <c r="AH6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
@@ -3324,17 +3384,41 @@
           <t>住所</t>
         </is>
       </c>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="AD7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG7" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="AH7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
@@ -3511,9 +3595,21 @@
           <t/>
         </is>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="AH8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK8" s="10" t="inlineStr">
         <is>
           <t>, 20</t>
@@ -3722,17 +3818,41 @@
           <t>趣味</t>
         </is>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AD9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG9" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
+      <c r="AH9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>

--- a/live2024/source/im-repository/im-repository-export-data.xlsx
+++ b/live2024/source/im-repository/im-repository-export-data.xlsx
@@ -2779,21 +2779,9 @@
           <t/>
         </is>
       </c>
-      <c r="AH4" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI4" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ4" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
       <c r="AK4" s="10" t="inlineStr">
         <is>
           <t>, 20</t>
@@ -2883,7 +2871,7 @@
       </c>
       <c r="E5" s="10" t="inlineStr">
         <is>
-          <t>live2024_name_DICTIONARY_001_8hctnfncp16pe85</t>
+          <t>live2024_name_DICTIONARY_001_8hctr7s4h18or85</t>
         </is>
       </c>
       <c r="F5" s="10" t="inlineStr">
@@ -3002,41 +2990,17 @@
           <t>氏名</t>
         </is>
       </c>
-      <c r="AD5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
       <c r="AG5" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ5" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
@@ -3074,7 +3038,7 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>live2024_age_DICTIONARY_002_8hctnfncq16pf85</t>
+          <t>live2024_age_DICTIONARY_002_8hctr7s4h18os85</t>
         </is>
       </c>
       <c r="F6" s="10" t="inlineStr">
@@ -3193,41 +3157,17 @@
           <t>年齢</t>
         </is>
       </c>
-      <c r="AD6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ6" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
@@ -3265,7 +3205,7 @@
       </c>
       <c r="E7" s="10" t="inlineStr">
         <is>
-          <t>live2024_address_DICTIONARY_003_8hctnfncq16pg85</t>
+          <t>live2024_address_DICTIONARY_003_8hctr7s4h18ot85</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr">
@@ -3384,41 +3324,17 @@
           <t>住所</t>
         </is>
       </c>
-      <c r="AD7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
       <c r="AG7" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
@@ -3595,21 +3511,9 @@
           <t/>
         </is>
       </c>
-      <c r="AH8" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI8" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ8" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
       <c r="AK8" s="10" t="inlineStr">
         <is>
           <t>, 20</t>
@@ -3699,7 +3603,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>live2024_hobby_DICTIONARY_004_8hctnfncq16ph85</t>
+          <t>live2024_hobby_DICTIONARY_004_8hctr7s4h18ou85</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
@@ -3818,41 +3722,17 @@
           <t>趣味</t>
         </is>
       </c>
-      <c r="AD9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
       <c r="AG9" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AI9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AJ9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>

--- a/live2024/source/im-repository/im-repository-export-data.xlsx
+++ b/live2024/source/im-repository/im-repository-export-data.xlsx
@@ -3747,9 +3747,148 @@
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
     </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>DictionaryItem</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>simple_workflow</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>メールアドレス</t>
+        </is>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q10" s="10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R10" s="10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="S10" s="10" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="T10" s="10" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="U10" s="10" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="V10" s="10" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="W10" s="10" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="X10" s="10" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="Y10" s="10" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="Z10" s="10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="AC10" s="10" t="inlineStr">
+        <is>
+          <t>メールアドレス</t>
+        </is>
+      </c>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="48">
+  <dataValidations count="56">
     <dataValidation type="list" sqref="A4" errorStyle="stop" allowBlank="true">
       <formula1>inputlist!$G$1:$G$4</formula1>
     </dataValidation>
@@ -3892,6 +4031,30 @@
       <formula1>inputlist!$E$1:$E$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y9" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$F$1:$F$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="A10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$G$1:$G$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="P10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$B$1:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="Q10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$B$1:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="R10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$B$1:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="S10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$C$1:$C$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="U10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$D$1:$D$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="W10" errorStyle="stop" allowBlank="true">
+      <formula1>inputlist!$E$1:$E$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="Y10" errorStyle="stop" allowBlank="true">
       <formula1>inputlist!$F$1:$F$9</formula1>
     </dataValidation>
   </dataValidations>
